--- a/PonchoSort/Estatistica dos dados.xlsx
+++ b/PonchoSort/Estatistica dos dados.xlsx
@@ -5,11 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="PonchoSort" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="QuickSort" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Resultado" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -21,18 +22,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="177">
   <si>
     <t xml:space="preserve">real</t>
   </si>
   <si>
-    <t xml:space="preserve">0m16.087s</t>
+    <t xml:space="preserve">0m16.422s</t>
   </si>
   <si>
     <t xml:space="preserve">user</t>
   </si>
   <si>
-    <t xml:space="preserve">0m14.047s</t>
+    <t xml:space="preserve">0m14.740s</t>
   </si>
   <si>
     <t xml:space="preserve">Media -&gt;</t>
@@ -41,531 +42,533 @@
     <t xml:space="preserve">sys</t>
   </si>
   <si>
-    <t xml:space="preserve">0m6.091s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0m16.004s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0m13.936s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0m6.148s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0m16.164s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0m14.096s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0m6.279s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0m16.110s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0m14.045s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0m6.217s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0m17.030s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0m15.555s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0m6.411s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0m15.885s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0m14.166s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0m6.017s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0m14.791s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0m12.923s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0m5.567s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0m12.874s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0m5.666s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0m14.707s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0m12.708s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0m5.616s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0m14.638s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0m12.743s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0m5.526s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0m14.667s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0m12.515s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0m5.684s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0m14.687s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0m12.844s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0m5.462s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0m14.619s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0m12.796s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0m5.377s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0m14.914s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0m13.313s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0m5.448s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0m14.766s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0m12.865s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0m5.632s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0m14.911s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0m13.010s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0m5.591s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0m14.689s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0m12.618s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0m5.628s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0m14.597s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0m12.672s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0m5.480s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0m14.836s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0m13.001s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0m5.646s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0m14.658s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0m12.636s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0m5.640s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0m14.799s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0m13.019s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0m5.531s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0m14.583s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0m12.747s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0m5.410s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0m14.783s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0m13.074s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0m5.392s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0m14.878s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0m12.975s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0m5.521s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0m14.711s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0m13.030s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0m5.404s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0m14.730s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0m12.932s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0m5.450s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0m14.814s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0m13.013s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0m5.552s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0m14.660s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0m12.763s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0m5.558s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0m14.683s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0m12.758s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0m5.468s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0m14.720s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0m12.901s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0m5.505s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0m16.148s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0m14.046s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0m6.237s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0m16.147s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0m13.989s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0m6.423s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0m16.396s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0m14.476s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0m6.368s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0m16.202s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0m14.209s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0m6.387s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0m16.127s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0m14.023s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0m6.316s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0m16.095s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0m14.073s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0m6.254s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0m16.326s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0m14.223s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0m6.226s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0m16.442s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0m14.574s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0m6.302s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0m16.264s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0m14.346s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0m6.202s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0m16.225s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0m14.313s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0m6.284s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0m16.324s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0m14.502s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0m6.337s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0m16.255s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0m14.282s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0m6.335s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0m16.329s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0m14.505s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0m6.375s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0m16.436s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0m14.642s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0m16.288s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0m14.555s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0m6.141s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0m16.404s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0m14.315s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0m6.340s</t>
+    <t xml:space="preserve">0m6.315s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0m16.462s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0m14.759s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0m6.233s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0m16.614s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0m14.956s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0m6.378s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0m16.518s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0m14.905s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0m6.303s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0m16.579s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0m14.844s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0m6.495s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0m16.541s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0m14.822s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0m6.474s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0m16.697s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0m15.141s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0m6.369s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0m16.440s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0m14.570s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0m6.460s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0m16.514s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0m14.825s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0m6.264s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0m16.383s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0m14.522s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0m6.432s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0m16.668s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0m14.973s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0m6.448s</t>
   </si>
   <si>
     <t xml:space="preserve">0m16.489s</t>
   </si>
   <si>
-    <t xml:space="preserve">0m14.341s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0m6.455s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0m16.301s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0m14.504s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0m6.209s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0m16.408s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0m14.562s</t>
+    <t xml:space="preserve">0m14.625s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0m6.515s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0m16.559s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0m15.125s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0m6.274s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0m16.490s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0m14.712s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0m6.480s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0m16.511s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0m14.777s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0m6.363s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0m14.843s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0m6.321s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0m16.709s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0m15.233s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0m6.404s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0m16.466s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0m14.816s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0m6.207s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0m16.604s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0m15.036s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0m6.379s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0m16.667s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0m15.109s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0m6.382s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0m16.435s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0m14.620s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0m6.444s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0m16.569s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0m14.890s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0m6.422s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0m16.561s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0m14.830s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0m6.439s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0m16.549s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0m14.957s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0m6.416s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0m16.392s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0m6.221s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0m16.464s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0m14.515s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0m6.456s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0m16.689s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0m15.003s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0m6.485s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0m16.441s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0m14.945s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0m6.191s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0m16.719s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0m15.074s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0m6.516s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0m16.506s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0m14.772s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0m6.285s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0m16.401s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0m14.735s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0m6.156s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0m14.664s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0m6.462s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0m16.662s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0m15.107s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0m6.385s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0m16.528s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0m14.826s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0m6.402s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0m16.631s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0m15.045s</t>
   </si>
   <si>
     <t xml:space="preserve">0m6.290s</t>
   </si>
   <si>
-    <t xml:space="preserve">0m16.357s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0m14.339s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0m6.450s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0m16.261s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0m14.247s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0m16.312s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0m14.347s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0m6.386s</t>
+    <t xml:space="preserve">0m16.530s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0m14.599s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0m6.608s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0m16.623s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0m15.149s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0m6.268s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0m16.547s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0m6.281s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0m14.798s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0m6.211s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0m14.881s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0m6.437s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0m16.555s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0m14.681s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0m14.523s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0m6.593s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0m16.634s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0m14.788s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0m6.613s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0m16.574s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0m14.831s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0m16.450s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0m14.588s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0m6.394s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0m16.366s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0m14.690s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0m14.655s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0m6.348s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0m16.505s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0m14.874s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0m6.301s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0m16.609s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0m14.806s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0m16.671s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0m6.399s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0m16.590s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0m14.846s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0m6.430s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0m16.479s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0m14.669s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0m6.443s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0m16.560s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0m14.934s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0m6.338s</t>
   </si>
   <si>
     <t xml:space="preserve">0m16.381s</t>
   </si>
   <si>
-    <t xml:space="preserve">0m14.542s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0m16.297s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0m14.417s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0m6.323s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0m14.668s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0m6.283s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0m14.324s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0m6.310s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0m16.282s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0m14.333s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0m6.311s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0m16.315s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0m14.380s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0m6.238s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0m16.197s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0m14.270s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0m16.409s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0m14.602s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0m6.190s</t>
+    <t xml:space="preserve">0m14.651s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0m16.421s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0m14.498s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0m6.534s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0m16.498s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0m14.716s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0m6.377s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0m16.342s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0m14.592s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0m6.308s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0m16.521s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0m14.757s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0m14.958s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0m6.513s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0m16.470s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0m14.823s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0m6.267s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medida</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PonchoSort</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QuickSort</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diferença</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resultado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estatísticas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vitórias do PonchoSort</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vitórias do QuickSort</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Media</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -582,8 +585,27 @@
       <name val="Arial"/>
       <family val="0"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -592,12 +614,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF00CC00"/>
+        <bgColor rgb="FF008000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FF993300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCCCCC"/>
+        <bgColor rgb="FFCCCCFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -605,8 +645,15 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -630,50 +677,197 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Sem título1" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Sem título2" xfId="21" builtinId="53" customBuiltin="true"/>
   </cellStyles>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00CC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <charset val="1"/>
+        <family val="2"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+  </dxfs>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00CC00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFCCCCCC"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF6666"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFCCFF66"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF66FF66"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
+    <tabColor rgb="FF66FF66"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A2:H120"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I3" activeCellId="0" sqref="I3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D118" activeCellId="0" sqref="D118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="4.47959183673469"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.4591836734694"/>
-    <col collapsed="false" hidden="false" max="6" min="3" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.65816326530612"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="4.18367346938776"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -685,19 +879,19 @@
       </c>
       <c r="D2" s="0" t="str">
         <f aca="false">B2</f>
-        <v>0m16.087s</v>
+        <v>0m16.422s</v>
       </c>
       <c r="E2" s="0" t="str">
         <f aca="false">LEFT(RIGHT(D2,7),6)</f>
-        <v>16.087</v>
+        <v>16.422</v>
       </c>
       <c r="F2" s="0" t="str">
         <f aca="false">CONCATENATE(LEFT(E2,2),",",RIGHT(E2,3))</f>
-        <v>16,087</v>
+        <v>16,422</v>
       </c>
       <c r="H2" s="0" t="n">
         <f aca="false">F2+F3+F4+F5+F6+F7+F8+F9+F10+F11+F12+F13+F14+F15+F16+F17+F18+F19+F20+F21+F22+F23+F24+F25+F26+F27+F28+F29+F30+F31</f>
-        <v>450.912</v>
+        <v>496.176</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -709,22 +903,22 @@
       </c>
       <c r="D3" s="0" t="str">
         <f aca="false">B6</f>
-        <v>0m16.004s</v>
+        <v>0m16.462s</v>
       </c>
       <c r="E3" s="0" t="str">
         <f aca="false">LEFT(RIGHT(D3,7),6)</f>
-        <v>16.004</v>
+        <v>16.462</v>
       </c>
       <c r="F3" s="0" t="str">
         <f aca="false">CONCATENATE(LEFT(E3,2),",",RIGHT(E3,3))</f>
-        <v>16,004</v>
+        <v>16,462</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="H3" s="2" t="n">
         <f aca="false">H2/30</f>
-        <v>15.0304</v>
+        <v>16.5392</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -736,29 +930,29 @@
       </c>
       <c r="D4" s="0" t="str">
         <f aca="false">B10</f>
-        <v>0m16.164s</v>
+        <v>0m16.614s</v>
       </c>
       <c r="E4" s="0" t="str">
         <f aca="false">LEFT(RIGHT(D4,7),6)</f>
-        <v>16.164</v>
+        <v>16.614</v>
       </c>
       <c r="F4" s="0" t="str">
         <f aca="false">CONCATENATE(LEFT(E4,2),",",RIGHT(E4,3))</f>
-        <v>16,164</v>
+        <v>16,614</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D5" s="0" t="str">
         <f aca="false">B14</f>
-        <v>0m16.110s</v>
+        <v>0m16.518s</v>
       </c>
       <c r="E5" s="0" t="str">
         <f aca="false">LEFT(RIGHT(D5,7),6)</f>
-        <v>16.110</v>
+        <v>16.518</v>
       </c>
       <c r="F5" s="0" t="str">
         <f aca="false">CONCATENATE(LEFT(E5,2),",",RIGHT(E5,3))</f>
-        <v>16,110</v>
+        <v>16,518</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -770,15 +964,15 @@
       </c>
       <c r="D6" s="0" t="str">
         <f aca="false">B18</f>
-        <v>0m17.030s</v>
+        <v>0m16.579s</v>
       </c>
       <c r="E6" s="0" t="str">
         <f aca="false">LEFT(RIGHT(D6,7),6)</f>
-        <v>17.030</v>
+        <v>16.579</v>
       </c>
       <c r="F6" s="0" t="str">
         <f aca="false">CONCATENATE(LEFT(E6,2),",",RIGHT(E6,3))</f>
-        <v>17,030</v>
+        <v>16,579</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -790,15 +984,15 @@
       </c>
       <c r="D7" s="0" t="str">
         <f aca="false">B22</f>
-        <v>0m15.885s</v>
+        <v>0m16.541s</v>
       </c>
       <c r="E7" s="0" t="str">
         <f aca="false">LEFT(RIGHT(D7,7),6)</f>
-        <v>15.885</v>
+        <v>16.541</v>
       </c>
       <c r="F7" s="0" t="str">
         <f aca="false">CONCATENATE(LEFT(E7,2),",",RIGHT(E7,3))</f>
-        <v>15,885</v>
+        <v>16,541</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -810,29 +1004,29 @@
       </c>
       <c r="D8" s="0" t="str">
         <f aca="false">B26</f>
-        <v>0m14.791s</v>
+        <v>0m16.697s</v>
       </c>
       <c r="E8" s="0" t="str">
         <f aca="false">LEFT(RIGHT(D8,7),6)</f>
-        <v>14.791</v>
+        <v>16.697</v>
       </c>
       <c r="F8" s="0" t="str">
         <f aca="false">CONCATENATE(LEFT(E8,2),",",RIGHT(E8,3))</f>
-        <v>14,791</v>
+        <v>16,697</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D9" s="0" t="str">
         <f aca="false">B30</f>
-        <v>0m14.791s</v>
+        <v>0m16.440s</v>
       </c>
       <c r="E9" s="0" t="str">
         <f aca="false">LEFT(RIGHT(D9,7),6)</f>
-        <v>14.791</v>
+        <v>16.440</v>
       </c>
       <c r="F9" s="0" t="str">
         <f aca="false">CONCATENATE(LEFT(E9,2),",",RIGHT(E9,3))</f>
-        <v>14,791</v>
+        <v>16,440</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -844,15 +1038,15 @@
       </c>
       <c r="D10" s="0" t="str">
         <f aca="false">B34</f>
-        <v>0m14.707s</v>
+        <v>0m16.514s</v>
       </c>
       <c r="E10" s="0" t="str">
         <f aca="false">LEFT(RIGHT(D10,7),6)</f>
-        <v>14.707</v>
+        <v>16.514</v>
       </c>
       <c r="F10" s="0" t="str">
         <f aca="false">CONCATENATE(LEFT(E10,2),",",RIGHT(E10,3))</f>
-        <v>14,707</v>
+        <v>16,514</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -864,15 +1058,15 @@
       </c>
       <c r="D11" s="0" t="str">
         <f aca="false">B38</f>
-        <v>0m14.638s</v>
+        <v>0m16.383s</v>
       </c>
       <c r="E11" s="0" t="str">
         <f aca="false">LEFT(RIGHT(D11,7),6)</f>
-        <v>14.638</v>
+        <v>16.383</v>
       </c>
       <c r="F11" s="0" t="str">
         <f aca="false">CONCATENATE(LEFT(E11,2),",",RIGHT(E11,3))</f>
-        <v>14,638</v>
+        <v>16,383</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -884,29 +1078,29 @@
       </c>
       <c r="D12" s="0" t="str">
         <f aca="false">B42</f>
-        <v>0m14.667s</v>
+        <v>0m16.668s</v>
       </c>
       <c r="E12" s="0" t="str">
         <f aca="false">LEFT(RIGHT(D12,7),6)</f>
-        <v>14.667</v>
+        <v>16.668</v>
       </c>
       <c r="F12" s="0" t="str">
         <f aca="false">CONCATENATE(LEFT(E12,2),",",RIGHT(E12,3))</f>
-        <v>14,667</v>
+        <v>16,668</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D13" s="0" t="str">
         <f aca="false">B46</f>
-        <v>0m14.687s</v>
+        <v>0m16.489s</v>
       </c>
       <c r="E13" s="0" t="str">
         <f aca="false">LEFT(RIGHT(D13,7),6)</f>
-        <v>14.687</v>
+        <v>16.489</v>
       </c>
       <c r="F13" s="0" t="str">
         <f aca="false">CONCATENATE(LEFT(E13,2),",",RIGHT(E13,3))</f>
-        <v>14,687</v>
+        <v>16,489</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -918,15 +1112,15 @@
       </c>
       <c r="D14" s="0" t="str">
         <f aca="false">B50</f>
-        <v>0m14.619s</v>
+        <v>0m16.559s</v>
       </c>
       <c r="E14" s="0" t="str">
         <f aca="false">LEFT(RIGHT(D14,7),6)</f>
-        <v>14.619</v>
+        <v>16.559</v>
       </c>
       <c r="F14" s="0" t="str">
         <f aca="false">CONCATENATE(LEFT(E14,2),",",RIGHT(E14,3))</f>
-        <v>14,619</v>
+        <v>16,559</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -938,15 +1132,15 @@
       </c>
       <c r="D15" s="0" t="str">
         <f aca="false">B54</f>
-        <v>0m14.914s</v>
+        <v>0m16.490s</v>
       </c>
       <c r="E15" s="0" t="str">
         <f aca="false">LEFT(RIGHT(D15,7),6)</f>
-        <v>14.914</v>
+        <v>16.490</v>
       </c>
       <c r="F15" s="0" t="str">
         <f aca="false">CONCATENATE(LEFT(E15,2),",",RIGHT(E15,3))</f>
-        <v>14,914</v>
+        <v>16,490</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -958,29 +1152,29 @@
       </c>
       <c r="D16" s="0" t="str">
         <f aca="false">B58</f>
-        <v>0m14.766s</v>
+        <v>0m16.511s</v>
       </c>
       <c r="E16" s="0" t="str">
         <f aca="false">LEFT(RIGHT(D16,7),6)</f>
-        <v>14.766</v>
+        <v>16.511</v>
       </c>
       <c r="F16" s="0" t="str">
         <f aca="false">CONCATENATE(LEFT(E16,2),",",RIGHT(E16,3))</f>
-        <v>14,766</v>
+        <v>16,511</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D17" s="0" t="str">
         <f aca="false">B62</f>
-        <v>0m14.911s</v>
+        <v>0m16.518s</v>
       </c>
       <c r="E17" s="0" t="str">
         <f aca="false">LEFT(RIGHT(D17,7),6)</f>
-        <v>14.911</v>
+        <v>16.518</v>
       </c>
       <c r="F17" s="0" t="str">
         <f aca="false">CONCATENATE(LEFT(E17,2),",",RIGHT(E17,3))</f>
-        <v>14,911</v>
+        <v>16,518</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -992,15 +1186,15 @@
       </c>
       <c r="D18" s="0" t="str">
         <f aca="false">B66</f>
-        <v>0m14.689s</v>
+        <v>0m16.709s</v>
       </c>
       <c r="E18" s="0" t="str">
         <f aca="false">LEFT(RIGHT(D18,7),6)</f>
-        <v>14.689</v>
+        <v>16.709</v>
       </c>
       <c r="F18" s="0" t="str">
         <f aca="false">CONCATENATE(LEFT(E18,2),",",RIGHT(E18,3))</f>
-        <v>14,689</v>
+        <v>16,709</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1012,15 +1206,15 @@
       </c>
       <c r="D19" s="0" t="str">
         <f aca="false">B70</f>
-        <v>0m14.597s</v>
+        <v>0m16.466s</v>
       </c>
       <c r="E19" s="0" t="str">
         <f aca="false">LEFT(RIGHT(D19,7),6)</f>
-        <v>14.597</v>
+        <v>16.466</v>
       </c>
       <c r="F19" s="0" t="str">
         <f aca="false">CONCATENATE(LEFT(E19,2),",",RIGHT(E19,3))</f>
-        <v>14,597</v>
+        <v>16,466</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1032,29 +1226,29 @@
       </c>
       <c r="D20" s="0" t="str">
         <f aca="false">B74</f>
-        <v>0m14.836s</v>
+        <v>0m16.604s</v>
       </c>
       <c r="E20" s="0" t="str">
         <f aca="false">LEFT(RIGHT(D20,7),6)</f>
-        <v>14.836</v>
+        <v>16.604</v>
       </c>
       <c r="F20" s="0" t="str">
         <f aca="false">CONCATENATE(LEFT(E20,2),",",RIGHT(E20,3))</f>
-        <v>14,836</v>
+        <v>16,604</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D21" s="0" t="str">
         <f aca="false">B78</f>
-        <v>0m14.658s</v>
+        <v>0m16.667s</v>
       </c>
       <c r="E21" s="0" t="str">
         <f aca="false">LEFT(RIGHT(D21,7),6)</f>
-        <v>14.658</v>
+        <v>16.667</v>
       </c>
       <c r="F21" s="0" t="str">
         <f aca="false">CONCATENATE(LEFT(E21,2),",",RIGHT(E21,3))</f>
-        <v>14,658</v>
+        <v>16,667</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1066,15 +1260,15 @@
       </c>
       <c r="D22" s="0" t="str">
         <f aca="false">B82</f>
-        <v>0m14.799s</v>
+        <v>0m16.435s</v>
       </c>
       <c r="E22" s="0" t="str">
         <f aca="false">LEFT(RIGHT(D22,7),6)</f>
-        <v>14.799</v>
+        <v>16.435</v>
       </c>
       <c r="F22" s="0" t="str">
         <f aca="false">CONCATENATE(LEFT(E22,2),",",RIGHT(E22,3))</f>
-        <v>14,799</v>
+        <v>16,435</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1086,15 +1280,15 @@
       </c>
       <c r="D23" s="0" t="str">
         <f aca="false">B86</f>
-        <v>0m14.583s</v>
+        <v>0m16.569s</v>
       </c>
       <c r="E23" s="0" t="str">
         <f aca="false">LEFT(RIGHT(D23,7),6)</f>
-        <v>14.583</v>
+        <v>16.569</v>
       </c>
       <c r="F23" s="0" t="str">
         <f aca="false">CONCATENATE(LEFT(E23,2),",",RIGHT(E23,3))</f>
-        <v>14,583</v>
+        <v>16,569</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1106,29 +1300,29 @@
       </c>
       <c r="D24" s="0" t="str">
         <f aca="false">B90</f>
-        <v>0m14.783s</v>
+        <v>0m16.561s</v>
       </c>
       <c r="E24" s="0" t="str">
         <f aca="false">LEFT(RIGHT(D24,7),6)</f>
-        <v>14.783</v>
+        <v>16.561</v>
       </c>
       <c r="F24" s="0" t="str">
         <f aca="false">CONCATENATE(LEFT(E24,2),",",RIGHT(E24,3))</f>
-        <v>14,783</v>
+        <v>16,561</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D25" s="0" t="str">
         <f aca="false">B94</f>
-        <v>0m14.878s</v>
+        <v>0m16.549s</v>
       </c>
       <c r="E25" s="0" t="str">
         <f aca="false">LEFT(RIGHT(D25,7),6)</f>
-        <v>14.878</v>
+        <v>16.549</v>
       </c>
       <c r="F25" s="0" t="str">
         <f aca="false">CONCATENATE(LEFT(E25,2),",",RIGHT(E25,3))</f>
-        <v>14,878</v>
+        <v>16,549</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1140,15 +1334,15 @@
       </c>
       <c r="D26" s="0" t="str">
         <f aca="false">B98</f>
-        <v>0m14.711s</v>
+        <v>0m16.392s</v>
       </c>
       <c r="E26" s="0" t="str">
         <f aca="false">LEFT(RIGHT(D26,7),6)</f>
-        <v>14.711</v>
+        <v>16.392</v>
       </c>
       <c r="F26" s="0" t="str">
         <f aca="false">CONCATENATE(LEFT(E26,2),",",RIGHT(E26,3))</f>
-        <v>14,711</v>
+        <v>16,392</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1160,15 +1354,15 @@
       </c>
       <c r="D27" s="0" t="str">
         <f aca="false">B102</f>
-        <v>0m14.730s</v>
+        <v>0m16.464s</v>
       </c>
       <c r="E27" s="0" t="str">
         <f aca="false">LEFT(RIGHT(D27,7),6)</f>
-        <v>14.730</v>
+        <v>16.464</v>
       </c>
       <c r="F27" s="0" t="str">
         <f aca="false">CONCATENATE(LEFT(E27,2),",",RIGHT(E27,3))</f>
-        <v>14,730</v>
+        <v>16,464</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1180,29 +1374,29 @@
       </c>
       <c r="D28" s="0" t="str">
         <f aca="false">B106</f>
-        <v>0m14.814s</v>
+        <v>0m16.689s</v>
       </c>
       <c r="E28" s="0" t="str">
         <f aca="false">LEFT(RIGHT(D28,7),6)</f>
-        <v>14.814</v>
+        <v>16.689</v>
       </c>
       <c r="F28" s="0" t="str">
         <f aca="false">CONCATENATE(LEFT(E28,2),",",RIGHT(E28,3))</f>
-        <v>14,814</v>
+        <v>16,689</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D29" s="0" t="str">
         <f aca="false">B110</f>
-        <v>0m14.660s</v>
+        <v>0m16.441s</v>
       </c>
       <c r="E29" s="0" t="str">
         <f aca="false">LEFT(RIGHT(D29,7),6)</f>
-        <v>14.660</v>
+        <v>16.441</v>
       </c>
       <c r="F29" s="0" t="str">
         <f aca="false">CONCATENATE(LEFT(E29,2),",",RIGHT(E29,3))</f>
-        <v>14,660</v>
+        <v>16,441</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1210,19 +1404,19 @@
         <v>0</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D30" s="0" t="str">
         <f aca="false">B114</f>
-        <v>0m14.683s</v>
+        <v>0m16.719s</v>
       </c>
       <c r="E30" s="0" t="str">
         <f aca="false">LEFT(RIGHT(D30,7),6)</f>
-        <v>14.683</v>
+        <v>16.719</v>
       </c>
       <c r="F30" s="0" t="str">
         <f aca="false">CONCATENATE(LEFT(E30,2),",",RIGHT(E30,3))</f>
-        <v>14,683</v>
+        <v>16,719</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1230,19 +1424,19 @@
         <v>2</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D31" s="0" t="str">
         <f aca="false">B118</f>
-        <v>0m14.720s</v>
+        <v>0m16.506s</v>
       </c>
       <c r="E31" s="0" t="str">
         <f aca="false">LEFT(RIGHT(D31,7),6)</f>
-        <v>14.720</v>
+        <v>16.506</v>
       </c>
       <c r="F31" s="0" t="str">
         <f aca="false">CONCATENATE(LEFT(E31,2),",",RIGHT(E31,3))</f>
-        <v>14,720</v>
+        <v>16,506</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1250,7 +1444,7 @@
         <v>5</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1258,7 +1452,7 @@
         <v>0</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1266,7 +1460,7 @@
         <v>2</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1274,7 +1468,7 @@
         <v>5</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1282,7 +1476,7 @@
         <v>0</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1290,7 +1484,7 @@
         <v>2</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1298,7 +1492,7 @@
         <v>5</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1306,7 +1500,7 @@
         <v>0</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1314,7 +1508,7 @@
         <v>2</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1322,7 +1516,7 @@
         <v>5</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1330,7 +1524,7 @@
         <v>0</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1338,7 +1532,7 @@
         <v>2</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1346,7 +1540,7 @@
         <v>5</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1354,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1362,7 +1556,7 @@
         <v>2</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1370,7 +1564,7 @@
         <v>5</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1378,7 +1572,7 @@
         <v>0</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1386,7 +1580,7 @@
         <v>2</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1394,7 +1588,7 @@
         <v>5</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1402,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1410,7 +1604,7 @@
         <v>2</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1418,7 +1612,7 @@
         <v>5</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1426,7 +1620,7 @@
         <v>0</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1650,7 +1844,7 @@
         <v>2</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>76</v>
+        <v>38</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1658,7 +1852,7 @@
         <v>5</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1666,7 +1860,7 @@
         <v>0</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1674,7 +1868,7 @@
         <v>2</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1682,7 +1876,7 @@
         <v>5</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1690,7 +1884,7 @@
         <v>0</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1698,7 +1892,7 @@
         <v>2</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1706,7 +1900,7 @@
         <v>5</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1714,7 +1908,7 @@
         <v>0</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1722,7 +1916,7 @@
         <v>2</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1730,7 +1924,7 @@
         <v>5</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1738,7 +1932,7 @@
         <v>0</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1746,7 +1940,7 @@
         <v>2</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1754,7 +1948,7 @@
         <v>5</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1762,7 +1956,7 @@
         <v>0</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1770,7 +1964,7 @@
         <v>2</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1778,7 +1972,7 @@
         <v>5</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -1795,21 +1989,20 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
+    <tabColor rgb="FFFF6666"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A2:H120"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H13" activeCellId="0" sqref="H13"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="4.47959183673469"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.4591836734694"/>
-    <col collapsed="false" hidden="false" max="6" min="3" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.65816326530612"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="4.18367346938776"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1817,23 +2010,23 @@
         <v>0</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D2" s="0" t="str">
         <f aca="false">B2</f>
-        <v>0m16.148s</v>
+        <v>0m16.401s</v>
       </c>
       <c r="E2" s="0" t="str">
         <f aca="false">LEFT(RIGHT(D2,7),6)</f>
-        <v>16.148</v>
+        <v>16.401</v>
       </c>
       <c r="F2" s="0" t="str">
         <f aca="false">CONCATENATE(LEFT(E2,2),",",RIGHT(E2,3))</f>
-        <v>16,148</v>
+        <v>16,401</v>
       </c>
       <c r="H2" s="0" t="n">
         <f aca="false">F2+F3+F4+F5+F6+F7+F8+F9+F10+F11+F12+F13+F14+F15+F16+F17+F18+F19+F20+F21+F22+F23+F24+F25+F26+F27+F28+F29+F30+F31</f>
-        <v>489.086</v>
+        <v>495.655</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1841,26 +2034,26 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D3" s="0" t="str">
         <f aca="false">B6</f>
-        <v>0m16.147s</v>
+        <v>0m16.490s</v>
       </c>
       <c r="E3" s="0" t="str">
         <f aca="false">LEFT(RIGHT(D3,7),6)</f>
-        <v>16.147</v>
+        <v>16.490</v>
       </c>
       <c r="F3" s="0" t="str">
         <f aca="false">CONCATENATE(LEFT(E3,2),",",RIGHT(E3,3))</f>
-        <v>16,147</v>
+        <v>16,490</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="H3" s="2" t="n">
         <f aca="false">H2/30</f>
-        <v>16.3028666666667</v>
+        <v>16.5218333333333</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1868,33 +2061,33 @@
         <v>5</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D4" s="0" t="str">
         <f aca="false">B10</f>
-        <v>0m16.396s</v>
+        <v>0m16.662s</v>
       </c>
       <c r="E4" s="0" t="str">
         <f aca="false">LEFT(RIGHT(D4,7),6)</f>
-        <v>16.396</v>
+        <v>16.662</v>
       </c>
       <c r="F4" s="0" t="str">
         <f aca="false">CONCATENATE(LEFT(E4,2),",",RIGHT(E4,3))</f>
-        <v>16,396</v>
+        <v>16,662</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D5" s="0" t="str">
         <f aca="false">B14</f>
-        <v>0m16.202s</v>
+        <v>0m16.528s</v>
       </c>
       <c r="E5" s="0" t="str">
         <f aca="false">LEFT(RIGHT(D5,7),6)</f>
-        <v>16.202</v>
+        <v>16.528</v>
       </c>
       <c r="F5" s="0" t="str">
         <f aca="false">CONCATENATE(LEFT(E5,2),",",RIGHT(E5,3))</f>
-        <v>16,202</v>
+        <v>16,528</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1902,19 +2095,19 @@
         <v>0</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>96</v>
+        <v>43</v>
       </c>
       <c r="D6" s="0" t="str">
         <f aca="false">B18</f>
-        <v>0m16.127s</v>
+        <v>0m16.631s</v>
       </c>
       <c r="E6" s="0" t="str">
         <f aca="false">LEFT(RIGHT(D6,7),6)</f>
-        <v>16.127</v>
+        <v>16.631</v>
       </c>
       <c r="F6" s="0" t="str">
         <f aca="false">CONCATENATE(LEFT(E6,2),",",RIGHT(E6,3))</f>
-        <v>16,127</v>
+        <v>16,631</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1922,19 +2115,19 @@
         <v>2</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D7" s="0" t="str">
         <f aca="false">B22</f>
-        <v>0m16.095s</v>
+        <v>0m16.530s</v>
       </c>
       <c r="E7" s="0" t="str">
         <f aca="false">LEFT(RIGHT(D7,7),6)</f>
-        <v>16.095</v>
+        <v>16.530</v>
       </c>
       <c r="F7" s="0" t="str">
         <f aca="false">CONCATENATE(LEFT(E7,2),",",RIGHT(E7,3))</f>
-        <v>16,095</v>
+        <v>16,530</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1942,33 +2135,33 @@
         <v>5</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D8" s="0" t="str">
         <f aca="false">B26</f>
-        <v>0m16.326s</v>
+        <v>0m16.623s</v>
       </c>
       <c r="E8" s="0" t="str">
         <f aca="false">LEFT(RIGHT(D8,7),6)</f>
-        <v>16.326</v>
+        <v>16.623</v>
       </c>
       <c r="F8" s="0" t="str">
         <f aca="false">CONCATENATE(LEFT(E8,2),",",RIGHT(E8,3))</f>
-        <v>16,326</v>
+        <v>16,623</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D9" s="0" t="str">
         <f aca="false">B30</f>
-        <v>0m16.442s</v>
+        <v>0m16.547s</v>
       </c>
       <c r="E9" s="0" t="str">
         <f aca="false">LEFT(RIGHT(D9,7),6)</f>
-        <v>16.442</v>
+        <v>16.547</v>
       </c>
       <c r="F9" s="0" t="str">
         <f aca="false">CONCATENATE(LEFT(E9,2),",",RIGHT(E9,3))</f>
-        <v>16,442</v>
+        <v>16,547</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1976,19 +2169,19 @@
         <v>0</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D10" s="0" t="str">
         <f aca="false">B34</f>
-        <v>0m16.264s</v>
+        <v>0m16.435s</v>
       </c>
       <c r="E10" s="0" t="str">
         <f aca="false">LEFT(RIGHT(D10,7),6)</f>
-        <v>16.264</v>
+        <v>16.435</v>
       </c>
       <c r="F10" s="0" t="str">
         <f aca="false">CONCATENATE(LEFT(E10,2),",",RIGHT(E10,3))</f>
-        <v>16,264</v>
+        <v>16,435</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1996,19 +2189,19 @@
         <v>2</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D11" s="0" t="str">
         <f aca="false">B38</f>
-        <v>0m16.225s</v>
+        <v>0m16.569s</v>
       </c>
       <c r="E11" s="0" t="str">
         <f aca="false">LEFT(RIGHT(D11,7),6)</f>
-        <v>16.225</v>
+        <v>16.569</v>
       </c>
       <c r="F11" s="0" t="str">
         <f aca="false">CONCATENATE(LEFT(E11,2),",",RIGHT(E11,3))</f>
-        <v>16,225</v>
+        <v>16,569</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2016,33 +2209,33 @@
         <v>5</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D12" s="0" t="str">
         <f aca="false">B42</f>
-        <v>0m16.324s</v>
+        <v>0m16.555s</v>
       </c>
       <c r="E12" s="0" t="str">
         <f aca="false">LEFT(RIGHT(D12,7),6)</f>
-        <v>16.324</v>
+        <v>16.555</v>
       </c>
       <c r="F12" s="0" t="str">
         <f aca="false">CONCATENATE(LEFT(E12,2),",",RIGHT(E12,3))</f>
-        <v>16,324</v>
+        <v>16,555</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D13" s="0" t="str">
         <f aca="false">B46</f>
-        <v>0m16.255s</v>
+        <v>0m16.511s</v>
       </c>
       <c r="E13" s="0" t="str">
         <f aca="false">LEFT(RIGHT(D13,7),6)</f>
-        <v>16.255</v>
+        <v>16.511</v>
       </c>
       <c r="F13" s="0" t="str">
         <f aca="false">CONCATENATE(LEFT(E13,2),",",RIGHT(E13,3))</f>
-        <v>16,255</v>
+        <v>16,511</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2050,19 +2243,19 @@
         <v>0</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D14" s="0" t="str">
         <f aca="false">B50</f>
-        <v>0m16.329s</v>
+        <v>0m16.634s</v>
       </c>
       <c r="E14" s="0" t="str">
         <f aca="false">LEFT(RIGHT(D14,7),6)</f>
-        <v>16.329</v>
+        <v>16.634</v>
       </c>
       <c r="F14" s="0" t="str">
         <f aca="false">CONCATENATE(LEFT(E14,2),",",RIGHT(E14,3))</f>
-        <v>16,329</v>
+        <v>16,634</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2070,19 +2263,19 @@
         <v>2</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D15" s="0" t="str">
         <f aca="false">B54</f>
-        <v>0m16.436s</v>
+        <v>0m16.574s</v>
       </c>
       <c r="E15" s="0" t="str">
         <f aca="false">LEFT(RIGHT(D15,7),6)</f>
-        <v>16.436</v>
+        <v>16.574</v>
       </c>
       <c r="F15" s="0" t="str">
         <f aca="false">CONCATENATE(LEFT(E15,2),",",RIGHT(E15,3))</f>
-        <v>16,436</v>
+        <v>16,574</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2090,33 +2283,33 @@
         <v>5</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D16" s="0" t="str">
         <f aca="false">B58</f>
-        <v>0m16.288s</v>
+        <v>0m16.450s</v>
       </c>
       <c r="E16" s="0" t="str">
         <f aca="false">LEFT(RIGHT(D16,7),6)</f>
-        <v>16.288</v>
+        <v>16.450</v>
       </c>
       <c r="F16" s="0" t="str">
         <f aca="false">CONCATENATE(LEFT(E16,2),",",RIGHT(E16,3))</f>
-        <v>16,288</v>
+        <v>16,450</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D17" s="0" t="str">
         <f aca="false">B62</f>
-        <v>0m16.404s</v>
+        <v>0m16.366s</v>
       </c>
       <c r="E17" s="0" t="str">
         <f aca="false">LEFT(RIGHT(D17,7),6)</f>
-        <v>16.404</v>
+        <v>16.366</v>
       </c>
       <c r="F17" s="0" t="str">
         <f aca="false">CONCATENATE(LEFT(E17,2),",",RIGHT(E17,3))</f>
-        <v>16,404</v>
+        <v>16,366</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2124,19 +2317,19 @@
         <v>0</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D18" s="0" t="str">
         <f aca="false">B66</f>
-        <v>0m16.489s</v>
+        <v>0m16.435s</v>
       </c>
       <c r="E18" s="0" t="str">
         <f aca="false">LEFT(RIGHT(D18,7),6)</f>
-        <v>16.489</v>
+        <v>16.435</v>
       </c>
       <c r="F18" s="0" t="str">
         <f aca="false">CONCATENATE(LEFT(E18,2),",",RIGHT(E18,3))</f>
-        <v>16,489</v>
+        <v>16,435</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2144,19 +2337,19 @@
         <v>2</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D19" s="0" t="str">
         <f aca="false">B70</f>
-        <v>0m16.301s</v>
+        <v>0m16.505s</v>
       </c>
       <c r="E19" s="0" t="str">
         <f aca="false">LEFT(RIGHT(D19,7),6)</f>
-        <v>16.301</v>
+        <v>16.505</v>
       </c>
       <c r="F19" s="0" t="str">
         <f aca="false">CONCATENATE(LEFT(E19,2),",",RIGHT(E19,3))</f>
-        <v>16,301</v>
+        <v>16,505</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2164,33 +2357,33 @@
         <v>5</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D20" s="0" t="str">
         <f aca="false">B74</f>
-        <v>0m16.408s</v>
+        <v>0m16.609s</v>
       </c>
       <c r="E20" s="0" t="str">
         <f aca="false">LEFT(RIGHT(D20,7),6)</f>
-        <v>16.408</v>
+        <v>16.609</v>
       </c>
       <c r="F20" s="0" t="str">
         <f aca="false">CONCATENATE(LEFT(E20,2),",",RIGHT(E20,3))</f>
-        <v>16,408</v>
+        <v>16,609</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D21" s="0" t="str">
         <f aca="false">B78</f>
-        <v>0m16.357s</v>
+        <v>0m16.671s</v>
       </c>
       <c r="E21" s="0" t="str">
         <f aca="false">LEFT(RIGHT(D21,7),6)</f>
-        <v>16.357</v>
+        <v>16.671</v>
       </c>
       <c r="F21" s="0" t="str">
         <f aca="false">CONCATENATE(LEFT(E21,2),",",RIGHT(E21,3))</f>
-        <v>16,357</v>
+        <v>16,671</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2198,19 +2391,19 @@
         <v>0</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D22" s="0" t="str">
         <f aca="false">B82</f>
-        <v>0m16.261s</v>
+        <v>0m16.590s</v>
       </c>
       <c r="E22" s="0" t="str">
         <f aca="false">LEFT(RIGHT(D22,7),6)</f>
-        <v>16.261</v>
+        <v>16.590</v>
       </c>
       <c r="F22" s="0" t="str">
         <f aca="false">CONCATENATE(LEFT(E22,2),",",RIGHT(E22,3))</f>
-        <v>16,261</v>
+        <v>16,590</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2218,19 +2411,19 @@
         <v>2</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D23" s="0" t="str">
         <f aca="false">B86</f>
-        <v>0m16.312s</v>
+        <v>0m16.479s</v>
       </c>
       <c r="E23" s="0" t="str">
         <f aca="false">LEFT(RIGHT(D23,7),6)</f>
-        <v>16.312</v>
+        <v>16.479</v>
       </c>
       <c r="F23" s="0" t="str">
         <f aca="false">CONCATENATE(LEFT(E23,2),",",RIGHT(E23,3))</f>
-        <v>16,312</v>
+        <v>16,479</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2238,33 +2431,33 @@
         <v>5</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D24" s="0" t="str">
         <f aca="false">B90</f>
-        <v>0m16.381s</v>
+        <v>0m16.560s</v>
       </c>
       <c r="E24" s="0" t="str">
         <f aca="false">LEFT(RIGHT(D24,7),6)</f>
-        <v>16.381</v>
+        <v>16.560</v>
       </c>
       <c r="F24" s="0" t="str">
         <f aca="false">CONCATENATE(LEFT(E24,2),",",RIGHT(E24,3))</f>
-        <v>16,381</v>
+        <v>16,560</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D25" s="0" t="str">
         <f aca="false">B94</f>
-        <v>0m16.297s</v>
+        <v>0m16.381s</v>
       </c>
       <c r="E25" s="0" t="str">
         <f aca="false">LEFT(RIGHT(D25,7),6)</f>
-        <v>16.297</v>
+        <v>16.381</v>
       </c>
       <c r="F25" s="0" t="str">
         <f aca="false">CONCATENATE(LEFT(E25,2),",",RIGHT(E25,3))</f>
-        <v>16,297</v>
+        <v>16,381</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2272,19 +2465,19 @@
         <v>0</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D26" s="0" t="str">
         <f aca="false">B98</f>
-        <v>0m16.408s</v>
+        <v>0m16.421s</v>
       </c>
       <c r="E26" s="0" t="str">
         <f aca="false">LEFT(RIGHT(D26,7),6)</f>
-        <v>16.408</v>
+        <v>16.421</v>
       </c>
       <c r="F26" s="0" t="str">
         <f aca="false">CONCATENATE(LEFT(E26,2),",",RIGHT(E26,3))</f>
-        <v>16,408</v>
+        <v>16,421</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2292,19 +2485,19 @@
         <v>2</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D27" s="0" t="str">
         <f aca="false">B102</f>
-        <v>0m16.261s</v>
+        <v>0m16.498s</v>
       </c>
       <c r="E27" s="0" t="str">
         <f aca="false">LEFT(RIGHT(D27,7),6)</f>
-        <v>16.261</v>
+        <v>16.498</v>
       </c>
       <c r="F27" s="0" t="str">
         <f aca="false">CONCATENATE(LEFT(E27,2),",",RIGHT(E27,3))</f>
-        <v>16,261</v>
+        <v>16,498</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2312,33 +2505,33 @@
         <v>5</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D28" s="0" t="str">
         <f aca="false">B106</f>
-        <v>0m16.282s</v>
+        <v>0m16.342s</v>
       </c>
       <c r="E28" s="0" t="str">
         <f aca="false">LEFT(RIGHT(D28,7),6)</f>
-        <v>16.282</v>
+        <v>16.342</v>
       </c>
       <c r="F28" s="0" t="str">
         <f aca="false">CONCATENATE(LEFT(E28,2),",",RIGHT(E28,3))</f>
-        <v>16,282</v>
+        <v>16,342</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D29" s="0" t="str">
         <f aca="false">B110</f>
-        <v>0m16.315s</v>
+        <v>0m16.521s</v>
       </c>
       <c r="E29" s="0" t="str">
         <f aca="false">LEFT(RIGHT(D29,7),6)</f>
-        <v>16.315</v>
+        <v>16.521</v>
       </c>
       <c r="F29" s="0" t="str">
         <f aca="false">CONCATENATE(LEFT(E29,2),",",RIGHT(E29,3))</f>
-        <v>16,315</v>
+        <v>16,521</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2346,19 +2539,19 @@
         <v>0</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D30" s="0" t="str">
         <f aca="false">B114</f>
-        <v>0m16.197s</v>
+        <v>0m16.667s</v>
       </c>
       <c r="E30" s="0" t="str">
         <f aca="false">LEFT(RIGHT(D30,7),6)</f>
-        <v>16.197</v>
+        <v>16.667</v>
       </c>
       <c r="F30" s="0" t="str">
         <f aca="false">CONCATENATE(LEFT(E30,2),",",RIGHT(E30,3))</f>
-        <v>16,197</v>
+        <v>16,667</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2366,19 +2559,19 @@
         <v>2</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="D31" s="0" t="str">
         <f aca="false">B118</f>
-        <v>0m16.409s</v>
+        <v>0m16.470s</v>
       </c>
       <c r="E31" s="0" t="str">
         <f aca="false">LEFT(RIGHT(D31,7),6)</f>
-        <v>16.409</v>
+        <v>16.470</v>
       </c>
       <c r="F31" s="0" t="str">
         <f aca="false">CONCATENATE(LEFT(E31,2),",",RIGHT(E31,3))</f>
-        <v>16,409</v>
+        <v>16,470</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2386,7 +2579,7 @@
         <v>5</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2394,7 +2587,7 @@
         <v>0</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>117</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2402,7 +2595,7 @@
         <v>2</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2410,7 +2603,7 @@
         <v>5</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2418,7 +2611,7 @@
         <v>0</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>120</v>
+        <v>66</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2426,7 +2619,7 @@
         <v>2</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2434,7 +2627,7 @@
         <v>5</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2442,7 +2635,7 @@
         <v>0</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2450,7 +2643,7 @@
         <v>2</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2458,7 +2651,7 @@
         <v>5</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>125</v>
+        <v>45</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2466,7 +2659,7 @@
         <v>0</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>126</v>
+        <v>46</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2474,7 +2667,7 @@
         <v>2</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2482,7 +2675,7 @@
         <v>5</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2490,7 +2683,7 @@
         <v>0</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2498,7 +2691,7 @@
         <v>2</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2506,7 +2699,7 @@
         <v>5</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2514,7 +2707,7 @@
         <v>0</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2522,7 +2715,7 @@
         <v>2</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2530,7 +2723,7 @@
         <v>5</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>128</v>
+        <v>27</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2538,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2546,7 +2739,7 @@
         <v>2</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2554,7 +2747,7 @@
         <v>5</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2562,7 +2755,7 @@
         <v>0</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2570,7 +2763,7 @@
         <v>2</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2578,7 +2771,7 @@
         <v>5</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>139</v>
+        <v>76</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2586,7 +2779,7 @@
         <v>0</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>140</v>
+        <v>63</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2594,7 +2787,7 @@
         <v>2</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2602,7 +2795,7 @@
         <v>5</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2610,7 +2803,7 @@
         <v>0</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2618,7 +2811,7 @@
         <v>2</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2626,7 +2819,7 @@
         <v>5</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2634,7 +2827,7 @@
         <v>0</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2642,7 +2835,7 @@
         <v>2</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2650,7 +2843,7 @@
         <v>5</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>148</v>
+        <v>88</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2658,7 +2851,7 @@
         <v>0</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2666,7 +2859,7 @@
         <v>2</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>150</v>
+        <v>98</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2674,7 +2867,7 @@
         <v>5</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2682,7 +2875,7 @@
         <v>0</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2690,7 +2883,7 @@
         <v>2</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2698,7 +2891,7 @@
         <v>5</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2706,7 +2899,7 @@
         <v>0</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2714,7 +2907,7 @@
         <v>2</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2722,7 +2915,7 @@
         <v>5</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2730,7 +2923,7 @@
         <v>0</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2738,7 +2931,7 @@
         <v>2</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2746,7 +2939,7 @@
         <v>5</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>110</v>
+        <v>149</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2754,7 +2947,7 @@
         <v>0</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2762,7 +2955,7 @@
         <v>2</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2770,7 +2963,7 @@
         <v>5</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>161</v>
+        <v>111</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2778,7 +2971,7 @@
         <v>0</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2786,7 +2979,7 @@
         <v>2</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2794,7 +2987,7 @@
         <v>5</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2802,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2810,7 +3003,7 @@
         <v>2</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2818,7 +3011,7 @@
         <v>5</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2826,7 +3019,7 @@
         <v>0</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2834,7 +3027,7 @@
         <v>2</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2842,7 +3035,7 @@
         <v>5</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2850,7 +3043,7 @@
         <v>0</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2858,7 +3051,7 @@
         <v>2</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2866,7 +3059,7 @@
         <v>5</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>171</v>
+        <v>18</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2874,7 +3067,7 @@
         <v>0</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>172</v>
+        <v>60</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2882,7 +3075,7 @@
         <v>2</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2890,7 +3083,7 @@
         <v>5</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2898,7 +3091,7 @@
         <v>0</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2906,7 +3099,7 @@
         <v>2</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2914,16 +3107,765 @@
         <v>5</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPágina &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <tabColor rgb="FFCCFF66"/>
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:I32"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="str">
+        <f aca="false">PonchoSort!F2</f>
+        <v>16,422</v>
+      </c>
+      <c r="C2" s="3" t="str">
+        <f aca="false">QuickSort!F2</f>
+        <v>16,401</v>
+      </c>
+      <c r="D2" s="4" t="n">
+        <f aca="false">B2-C2</f>
+        <v>0.0210000000000008</v>
+      </c>
+      <c r="E2" s="3" t="n">
+        <f aca="false">IF(D2&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="G2" s="6" t="str">
+        <f aca="false">IF(D32=0,"Empate Técnico",IF(D32&lt;0,"PonchoSort Wins","QuickSort Wins"))</f>
+        <v>QuickSort Wins</v>
+      </c>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="str">
+        <f aca="false">PonchoSort!F3</f>
+        <v>16,462</v>
+      </c>
+      <c r="C3" s="3" t="str">
+        <f aca="false">QuickSort!F3</f>
+        <v>16,490</v>
+      </c>
+      <c r="D3" s="4" t="n">
+        <f aca="false">B3-C3</f>
+        <v>-0.0279999999999987</v>
+      </c>
+      <c r="E3" s="3" t="n">
+        <f aca="false">IF(D3&lt;0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="str">
+        <f aca="false">PonchoSort!F4</f>
+        <v>16,614</v>
+      </c>
+      <c r="C4" s="3" t="str">
+        <f aca="false">QuickSort!F4</f>
+        <v>16,662</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <f aca="false">B4-C4</f>
+        <v>-0.0479999999999983</v>
+      </c>
+      <c r="E4" s="3" t="n">
+        <f aca="false">IF(D4&lt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="str">
+        <f aca="false">PonchoSort!F5</f>
+        <v>16,518</v>
+      </c>
+      <c r="C5" s="3" t="str">
+        <f aca="false">QuickSort!F5</f>
+        <v>16,528</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <f aca="false">B5-C5</f>
+        <v>-0.00999999999999801</v>
+      </c>
+      <c r="E5" s="3" t="n">
+        <f aca="false">IF(D5&lt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="G5" s="8"/>
+      <c r="H5" s="9" t="n">
+        <f aca="false">COUNTIF(E2:E31,1)</f>
+        <v>16</v>
+      </c>
+      <c r="I5" s="9"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="str">
+        <f aca="false">PonchoSort!F6</f>
+        <v>16,579</v>
+      </c>
+      <c r="C6" s="3" t="str">
+        <f aca="false">QuickSort!F6</f>
+        <v>16,631</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <f aca="false">B6-C6</f>
+        <v>-0.0519999999999996</v>
+      </c>
+      <c r="E6" s="3" t="n">
+        <f aca="false">IF(D6&lt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="G6" s="8"/>
+      <c r="H6" s="10" t="n">
+        <f aca="false">COUNTIF(E2:E31,0)</f>
+        <v>14</v>
+      </c>
+      <c r="I6" s="10"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="str">
+        <f aca="false">PonchoSort!F7</f>
+        <v>16,541</v>
+      </c>
+      <c r="C7" s="3" t="str">
+        <f aca="false">QuickSort!F7</f>
+        <v>16,530</v>
+      </c>
+      <c r="D7" s="4" t="n">
+        <f aca="false">B7-C7</f>
+        <v>0.0109999999999992</v>
+      </c>
+      <c r="E7" s="3" t="n">
+        <f aca="false">IF(D7&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="str">
+        <f aca="false">PonchoSort!F8</f>
+        <v>16,697</v>
+      </c>
+      <c r="C8" s="3" t="str">
+        <f aca="false">QuickSort!F8</f>
+        <v>16,623</v>
+      </c>
+      <c r="D8" s="4" t="n">
+        <f aca="false">B8-C8</f>
+        <v>0.0739999999999981</v>
+      </c>
+      <c r="E8" s="3" t="n">
+        <f aca="false">IF(D8&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="str">
+        <f aca="false">PonchoSort!F9</f>
+        <v>16,440</v>
+      </c>
+      <c r="C9" s="3" t="str">
+        <f aca="false">QuickSort!F9</f>
+        <v>16,547</v>
+      </c>
+      <c r="D9" s="4" t="n">
+        <f aca="false">B9-C9</f>
+        <v>-0.106999999999999</v>
+      </c>
+      <c r="E9" s="3" t="n">
+        <f aca="false">IF(D9&lt;0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="str">
+        <f aca="false">PonchoSort!F10</f>
+        <v>16,514</v>
+      </c>
+      <c r="C10" s="3" t="str">
+        <f aca="false">QuickSort!F10</f>
+        <v>16,435</v>
+      </c>
+      <c r="D10" s="4" t="n">
+        <f aca="false">B10-C10</f>
+        <v>0.0790000000000006</v>
+      </c>
+      <c r="E10" s="3" t="n">
+        <f aca="false">IF(D10&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="str">
+        <f aca="false">PonchoSort!F11</f>
+        <v>16,383</v>
+      </c>
+      <c r="C11" s="3" t="str">
+        <f aca="false">QuickSort!F11</f>
+        <v>16,569</v>
+      </c>
+      <c r="D11" s="4" t="n">
+        <f aca="false">B11-C11</f>
+        <v>-0.186</v>
+      </c>
+      <c r="E11" s="3" t="n">
+        <f aca="false">IF(D11&lt;0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="str">
+        <f aca="false">PonchoSort!F12</f>
+        <v>16,668</v>
+      </c>
+      <c r="C12" s="3" t="str">
+        <f aca="false">QuickSort!F12</f>
+        <v>16,555</v>
+      </c>
+      <c r="D12" s="4" t="n">
+        <f aca="false">B12-C12</f>
+        <v>0.113</v>
+      </c>
+      <c r="E12" s="3" t="n">
+        <f aca="false">IF(D12&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="str">
+        <f aca="false">PonchoSort!F13</f>
+        <v>16,489</v>
+      </c>
+      <c r="C13" s="3" t="str">
+        <f aca="false">QuickSort!F13</f>
+        <v>16,511</v>
+      </c>
+      <c r="D13" s="4" t="n">
+        <f aca="false">B13-C13</f>
+        <v>-0.0219999999999985</v>
+      </c>
+      <c r="E13" s="3" t="n">
+        <f aca="false">IF(D13&lt;0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="str">
+        <f aca="false">PonchoSort!F14</f>
+        <v>16,559</v>
+      </c>
+      <c r="C14" s="3" t="str">
+        <f aca="false">QuickSort!F14</f>
+        <v>16,634</v>
+      </c>
+      <c r="D14" s="4" t="n">
+        <f aca="false">B14-C14</f>
+        <v>-0.0749999999999993</v>
+      </c>
+      <c r="E14" s="3" t="n">
+        <f aca="false">IF(D14&lt;0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="str">
+        <f aca="false">PonchoSort!F15</f>
+        <v>16,490</v>
+      </c>
+      <c r="C15" s="3" t="str">
+        <f aca="false">QuickSort!F15</f>
+        <v>16,574</v>
+      </c>
+      <c r="D15" s="4" t="n">
+        <f aca="false">B15-C15</f>
+        <v>-0.0840000000000032</v>
+      </c>
+      <c r="E15" s="3" t="n">
+        <f aca="false">IF(D15&lt;0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3" t="str">
+        <f aca="false">PonchoSort!F16</f>
+        <v>16,511</v>
+      </c>
+      <c r="C16" s="3" t="str">
+        <f aca="false">QuickSort!F16</f>
+        <v>16,450</v>
+      </c>
+      <c r="D16" s="4" t="n">
+        <f aca="false">B16-C16</f>
+        <v>0.0609999999999999</v>
+      </c>
+      <c r="E16" s="3" t="n">
+        <f aca="false">IF(D16&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3" t="str">
+        <f aca="false">PonchoSort!F17</f>
+        <v>16,518</v>
+      </c>
+      <c r="C17" s="3" t="str">
+        <f aca="false">QuickSort!F17</f>
+        <v>16,366</v>
+      </c>
+      <c r="D17" s="4" t="n">
+        <f aca="false">B17-C17</f>
+        <v>0.152000000000001</v>
+      </c>
+      <c r="E17" s="3" t="n">
+        <f aca="false">IF(D17&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="3" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3" t="str">
+        <f aca="false">PonchoSort!F18</f>
+        <v>16,709</v>
+      </c>
+      <c r="C18" s="3" t="str">
+        <f aca="false">QuickSort!F18</f>
+        <v>16,435</v>
+      </c>
+      <c r="D18" s="4" t="n">
+        <f aca="false">B18-C18</f>
+        <v>0.274000000000001</v>
+      </c>
+      <c r="E18" s="3" t="n">
+        <f aca="false">IF(D18&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="3" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3" t="str">
+        <f aca="false">PonchoSort!F19</f>
+        <v>16,466</v>
+      </c>
+      <c r="C19" s="3" t="str">
+        <f aca="false">QuickSort!F19</f>
+        <v>16,505</v>
+      </c>
+      <c r="D19" s="4" t="n">
+        <f aca="false">B19-C19</f>
+        <v>-0.0389999999999979</v>
+      </c>
+      <c r="E19" s="3" t="n">
+        <f aca="false">IF(D19&lt;0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="3" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3" t="str">
+        <f aca="false">PonchoSort!F20</f>
+        <v>16,604</v>
+      </c>
+      <c r="C20" s="3" t="str">
+        <f aca="false">QuickSort!F20</f>
+        <v>16,609</v>
+      </c>
+      <c r="D20" s="4" t="n">
+        <f aca="false">B20-C20</f>
+        <v>-0.00500000000000256</v>
+      </c>
+      <c r="E20" s="3" t="n">
+        <f aca="false">IF(D20&lt;0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3" t="str">
+        <f aca="false">PonchoSort!F21</f>
+        <v>16,667</v>
+      </c>
+      <c r="C21" s="3" t="str">
+        <f aca="false">QuickSort!F21</f>
+        <v>16,671</v>
+      </c>
+      <c r="D21" s="4" t="n">
+        <f aca="false">B21-C21</f>
+        <v>-0.00399999999999778</v>
+      </c>
+      <c r="E21" s="3" t="n">
+        <f aca="false">IF(D21&lt;0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="3" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" s="3" t="str">
+        <f aca="false">PonchoSort!F22</f>
+        <v>16,435</v>
+      </c>
+      <c r="C22" s="3" t="str">
+        <f aca="false">QuickSort!F22</f>
+        <v>16,590</v>
+      </c>
+      <c r="D22" s="4" t="n">
+        <f aca="false">B22-C22</f>
+        <v>-0.155000000000001</v>
+      </c>
+      <c r="E22" s="3" t="n">
+        <f aca="false">IF(D22&lt;0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="3" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3" t="str">
+        <f aca="false">PonchoSort!F23</f>
+        <v>16,569</v>
+      </c>
+      <c r="C23" s="3" t="str">
+        <f aca="false">QuickSort!F23</f>
+        <v>16,479</v>
+      </c>
+      <c r="D23" s="4" t="n">
+        <f aca="false">B23-C23</f>
+        <v>0.0899999999999999</v>
+      </c>
+      <c r="E23" s="3" t="n">
+        <f aca="false">IF(D23&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="3" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" s="3" t="str">
+        <f aca="false">PonchoSort!F24</f>
+        <v>16,561</v>
+      </c>
+      <c r="C24" s="3" t="str">
+        <f aca="false">QuickSort!F24</f>
+        <v>16,560</v>
+      </c>
+      <c r="D24" s="4" t="n">
+        <f aca="false">B24-C24</f>
+        <v>0.00100000000000122</v>
+      </c>
+      <c r="E24" s="3" t="n">
+        <f aca="false">IF(D24&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="3" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" s="3" t="str">
+        <f aca="false">PonchoSort!F25</f>
+        <v>16,549</v>
+      </c>
+      <c r="C25" s="3" t="str">
+        <f aca="false">QuickSort!F25</f>
+        <v>16,381</v>
+      </c>
+      <c r="D25" s="4" t="n">
+        <f aca="false">B25-C25</f>
+        <v>0.167999999999999</v>
+      </c>
+      <c r="E25" s="3" t="n">
+        <f aca="false">IF(D25&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="3" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" s="3" t="str">
+        <f aca="false">PonchoSort!F26</f>
+        <v>16,392</v>
+      </c>
+      <c r="C26" s="3" t="str">
+        <f aca="false">QuickSort!F26</f>
+        <v>16,421</v>
+      </c>
+      <c r="D26" s="4" t="n">
+        <f aca="false">B26-C26</f>
+        <v>-0.0289999999999999</v>
+      </c>
+      <c r="E26" s="3" t="n">
+        <f aca="false">IF(D26&lt;0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="3" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" s="3" t="str">
+        <f aca="false">PonchoSort!F27</f>
+        <v>16,464</v>
+      </c>
+      <c r="C27" s="3" t="str">
+        <f aca="false">QuickSort!F27</f>
+        <v>16,498</v>
+      </c>
+      <c r="D27" s="4" t="n">
+        <f aca="false">B27-C27</f>
+        <v>-0.0340000000000025</v>
+      </c>
+      <c r="E27" s="3" t="n">
+        <f aca="false">IF(D27&lt;0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="3" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" s="3" t="str">
+        <f aca="false">PonchoSort!F28</f>
+        <v>16,689</v>
+      </c>
+      <c r="C28" s="3" t="str">
+        <f aca="false">QuickSort!F28</f>
+        <v>16,342</v>
+      </c>
+      <c r="D28" s="4" t="n">
+        <f aca="false">B28-C28</f>
+        <v>0.347000000000001</v>
+      </c>
+      <c r="E28" s="3" t="n">
+        <f aca="false">IF(D28&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="3" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" s="3" t="str">
+        <f aca="false">PonchoSort!F29</f>
+        <v>16,441</v>
+      </c>
+      <c r="C29" s="3" t="str">
+        <f aca="false">QuickSort!F29</f>
+        <v>16,521</v>
+      </c>
+      <c r="D29" s="4" t="n">
+        <f aca="false">B29-C29</f>
+        <v>-0.0800000000000019</v>
+      </c>
+      <c r="E29" s="3" t="n">
+        <f aca="false">IF(D29&lt;0,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="3" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" s="3" t="str">
+        <f aca="false">PonchoSort!F30</f>
+        <v>16,719</v>
+      </c>
+      <c r="C30" s="3" t="str">
+        <f aca="false">QuickSort!F30</f>
+        <v>16,667</v>
+      </c>
+      <c r="D30" s="4" t="n">
+        <f aca="false">B30-C30</f>
+        <v>0.0519999999999996</v>
+      </c>
+      <c r="E30" s="3" t="n">
+        <f aca="false">IF(D30&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" s="3" t="str">
+        <f aca="false">PonchoSort!F31</f>
+        <v>16,506</v>
+      </c>
+      <c r="C31" s="3" t="str">
+        <f aca="false">QuickSort!F31</f>
+        <v>16,470</v>
+      </c>
+      <c r="D31" s="4" t="n">
+        <f aca="false">B31-C31</f>
+        <v>0.0360000000000014</v>
+      </c>
+      <c r="E31" s="3" t="n">
+        <f aca="false">IF(D31&lt;0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="B32" s="12" t="n">
+        <f aca="false">PonchoSort!H3</f>
+        <v>16.5392</v>
+      </c>
+      <c r="C32" s="12" t="n">
+        <f aca="false">QuickSort!H3</f>
+        <v>16.5218333333333</v>
+      </c>
+      <c r="D32" s="13" t="n">
+        <f aca="false">B32-C32</f>
+        <v>0.0173666666666676</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+  </mergeCells>
+  <conditionalFormatting sqref="D2:D32">
+    <cfRule type="cellIs" priority="2" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2">
+    <cfRule type="cellIs" priority="4" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>"PonchoSort Wins"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>"QuickSort Wins"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Página &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>